--- a/data/gfg/GFG_Export_2022-11-09.xlsx
+++ b/data/gfg/GFG_Export_2022-11-09.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/ghg/data/gfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15278EA0-6CC3-784D-BB78-987BFB97BFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D733C3-A4E0-884A-95C3-A4547F48965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFG_Export_October 2022" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GFG_Export_October 2022'!$A$1:$X$725</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3170,10 +3173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G63" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y79" sqref="Y79"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3256,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>748</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>772</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>400</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1021</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>29</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>27</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>236</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>235</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>483</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>482</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1072</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1073</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>232</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>234</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>231</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>228</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>230</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>229</v>
       </c>
@@ -4098,7 +4102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1148</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>227</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>226</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>573</v>
       </c>
@@ -4280,7 +4284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>220</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1204</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1202</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1203</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1205</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>796</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>797</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>476</v>
       </c>
@@ -4641,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>396</v>
       </c>
@@ -4682,7 +4686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1094</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1095</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>478</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>785</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>378</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1074</v>
       </c>
@@ -4943,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1075</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1076</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>252</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1111</v>
       </c>
@@ -5119,7 +5123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1110</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1109</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>576</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>998</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>955</v>
       </c>
@@ -5330,7 +5334,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>30</v>
       </c>
@@ -5377,7 +5381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>890</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1084</v>
       </c>
@@ -5468,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>822</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>46</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>395</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>33</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>31</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>32</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>42</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>41</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>40</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>47</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>48</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>49</v>
       </c>
@@ -5978,7 +5982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>35</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>34</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>36</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>625</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>701</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>423</v>
       </c>
@@ -6212,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>350</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>841</v>
       </c>
@@ -6297,7 +6301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>843</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>842</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>456</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>457</v>
       </c>
@@ -6473,7 +6477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1025</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>369</v>
       </c>
@@ -6558,7 +6562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>921</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>368</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>367</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>857</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1024</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>365</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>920</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>473</v>
       </c>
@@ -6892,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>364</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>474</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>684</v>
       </c>
@@ -7012,7 +7016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>347</v>
       </c>
@@ -7056,7 +7060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>839</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>824</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>424</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>447</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>487</v>
       </c>
@@ -7273,7 +7277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>488</v>
       </c>
@@ -7317,7 +7321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>446</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>721</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>720</v>
       </c>
@@ -7449,7 +7453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>719</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1082</v>
       </c>
@@ -7537,7 +7541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1079</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1081</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1080</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>882</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>879</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>881</v>
       </c>
@@ -7801,7 +7805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>880</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1155</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1153</v>
       </c>
@@ -7933,7 +7937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1014</v>
       </c>
@@ -7977,7 +7981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1015</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1016</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1019</v>
       </c>
@@ -8109,7 +8113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>593</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>767</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>913</v>
       </c>
@@ -8241,7 +8245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>592</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>13</v>
       </c>
@@ -8329,7 +8333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>659</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>849</v>
       </c>
@@ -8417,7 +8421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>591</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>319</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>498</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1020</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>515</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>949</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>9</v>
       </c>
@@ -8716,7 +8720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>320</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1201</v>
       </c>
@@ -8804,7 +8808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>321</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>628</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>630</v>
       </c>
@@ -8936,7 +8940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>629</v>
       </c>
@@ -8980,7 +8984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1210</v>
       </c>
@@ -9024,7 +9028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1211</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1212</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>754</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>206</v>
       </c>
@@ -9203,7 +9207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1157</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1043</v>
       </c>
@@ -9291,7 +9295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>522</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1164</v>
       </c>
@@ -9379,7 +9383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1045</v>
       </c>
@@ -9423,7 +9427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1044</v>
       </c>
@@ -9467,7 +9471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>521</v>
       </c>
@@ -9511,7 +9515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1160</v>
       </c>
@@ -9555,7 +9559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1142</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1158</v>
       </c>
@@ -9643,7 +9647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1048</v>
       </c>
@@ -9687,7 +9691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>526</v>
       </c>
@@ -9731,7 +9735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1149</v>
       </c>
@@ -9775,7 +9779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1046</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>523</v>
       </c>
@@ -9863,7 +9867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1163</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1049</v>
       </c>
@@ -9951,7 +9955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>869</v>
       </c>
@@ -9995,7 +9999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>868</v>
       </c>
@@ -10039,7 +10043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>205</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1047</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1162</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>524</v>
       </c>
@@ -10215,7 +10219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>866</v>
       </c>
@@ -10259,7 +10263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>867</v>
       </c>
@@ -10303,7 +10307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>525</v>
       </c>
@@ -10347,7 +10351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1161</v>
       </c>
@@ -10391,7 +10395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>730</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>511</v>
       </c>
@@ -10470,7 +10474,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>727</v>
       </c>
@@ -10505,7 +10509,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>437</v>
       </c>
@@ -10552,7 +10556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>981</v>
       </c>
@@ -10596,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>887</v>
       </c>
@@ -10643,7 +10647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>888</v>
       </c>
@@ -10681,7 +10685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>889</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1207</v>
       </c>
@@ -10772,7 +10776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1208</v>
       </c>
@@ -10819,7 +10823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1083</v>
       </c>
@@ -10866,7 +10870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>54</v>
       </c>
@@ -10910,7 +10914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>56</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1004</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>53</v>
       </c>
@@ -11042,7 +11046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>956</v>
       </c>
@@ -11089,7 +11093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>57</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>58</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>401</v>
       </c>
@@ -11230,7 +11234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>722</v>
       </c>
@@ -11274,7 +11278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>905</v>
       </c>
@@ -11318,7 +11322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>906</v>
       </c>
@@ -11362,7 +11366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>454</v>
       </c>
@@ -11406,7 +11410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>904</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>449</v>
       </c>
@@ -11494,7 +11498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>80</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>652</v>
       </c>
@@ -11582,7 +11586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>653</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>655</v>
       </c>
@@ -11670,7 +11674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>654</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1058</v>
       </c>
@@ -11758,7 +11762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1059</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>657</v>
       </c>
@@ -11846,7 +11850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>744</v>
       </c>
@@ -11890,7 +11894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>743</v>
       </c>
@@ -11934,7 +11938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>746</v>
       </c>
@@ -11978,7 +11982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>518</v>
       </c>
@@ -12013,7 +12017,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>519</v>
       </c>
@@ -12048,7 +12052,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>943</v>
       </c>
@@ -12092,7 +12096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1037</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1038</v>
       </c>
@@ -12180,7 +12184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>944</v>
       </c>
@@ -12224,7 +12228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1039</v>
       </c>
@@ -12268,7 +12272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1077</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1036</v>
       </c>
@@ -12356,7 +12360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>942</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1033</v>
       </c>
@@ -12444,7 +12448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1034</v>
       </c>
@@ -12488,7 +12492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>945</v>
       </c>
@@ -12532,7 +12536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1035</v>
       </c>
@@ -12576,7 +12580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1032</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>149</v>
       </c>
@@ -12664,7 +12668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>725</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>631</v>
       </c>
@@ -12752,7 +12756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>633</v>
       </c>
@@ -12796,7 +12800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>632</v>
       </c>
@@ -12840,7 +12844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>14</v>
       </c>
@@ -12884,7 +12888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>15</v>
       </c>
@@ -12928,7 +12932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>95</v>
       </c>
@@ -12972,7 +12976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>96</v>
       </c>
@@ -13016,7 +13020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>404</v>
       </c>
@@ -13060,7 +13064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>636</v>
       </c>
@@ -13104,7 +13108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>635</v>
       </c>
@@ -13148,7 +13152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>126</v>
       </c>
@@ -13192,7 +13196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1064</v>
       </c>
@@ -13236,7 +13240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1065</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>127</v>
       </c>
@@ -13324,7 +13328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>140</v>
       </c>
@@ -13368,7 +13372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>139</v>
       </c>
@@ -13412,7 +13416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>130</v>
       </c>
@@ -13456,7 +13460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>965</v>
       </c>
@@ -13500,7 +13504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1063</v>
       </c>
@@ -13544,7 +13548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>131</v>
       </c>
@@ -13588,7 +13592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>142</v>
       </c>
@@ -13632,7 +13636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>141</v>
       </c>
@@ -13676,7 +13680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>414</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>129</v>
       </c>
@@ -13764,7 +13768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>128</v>
       </c>
@@ -13808,7 +13812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>133</v>
       </c>
@@ -13852,7 +13856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>132</v>
       </c>
@@ -13896,7 +13900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>172</v>
       </c>
@@ -13940,7 +13944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>173</v>
       </c>
@@ -13984,7 +13988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1040</v>
       </c>
@@ -14031,7 +14035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>626</v>
       </c>
@@ -14075,7 +14079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>171</v>
       </c>
@@ -14113,7 +14117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>798</v>
       </c>
@@ -14157,7 +14161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>382</v>
       </c>
@@ -14189,7 +14193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>150</v>
       </c>
@@ -14227,7 +14231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>75</v>
       </c>
@@ -14271,7 +14275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>76</v>
       </c>
@@ -14315,7 +14319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>77</v>
       </c>
@@ -14359,7 +14363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>708</v>
       </c>
@@ -14406,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>707</v>
       </c>
@@ -14450,7 +14454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1156</v>
       </c>
@@ -14494,7 +14498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1152</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>464</v>
       </c>
@@ -14582,7 +14586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1051</v>
       </c>
@@ -14626,7 +14630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>463</v>
       </c>
@@ -14670,7 +14674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1169</v>
       </c>
@@ -14714,7 +14718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>461</v>
       </c>
@@ -14758,7 +14762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1052</v>
       </c>
@@ -14802,7 +14806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1167</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>462</v>
       </c>
@@ -14890,7 +14894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1168</v>
       </c>
@@ -14934,7 +14938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1143</v>
       </c>
@@ -14978,7 +14982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1159</v>
       </c>
@@ -15022,7 +15026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1053</v>
       </c>
@@ -15066,7 +15070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1154</v>
       </c>
@@ -15110,7 +15114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1151</v>
       </c>
@@ -15154,7 +15158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>465</v>
       </c>
@@ -15198,7 +15202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>460</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1166</v>
       </c>
@@ -15286,7 +15290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1054</v>
       </c>
@@ -15330,7 +15334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1055</v>
       </c>
@@ -15374,7 +15378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>459</v>
       </c>
@@ -15421,7 +15425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>621</v>
       </c>
@@ -15465,7 +15469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>698</v>
       </c>
@@ -15509,7 +15513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>221</v>
       </c>
@@ -15553,7 +15557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1050</v>
       </c>
@@ -15597,7 +15601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1165</v>
       </c>
@@ -15641,7 +15645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1056</v>
       </c>
@@ -15685,7 +15689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1087</v>
       </c>
@@ -15729,7 +15733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1090</v>
       </c>
@@ -15773,7 +15777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>616</v>
       </c>
@@ -15817,7 +15821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>615</v>
       </c>
@@ -15861,7 +15865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1088</v>
       </c>
@@ -15905,7 +15909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1150</v>
       </c>
@@ -15943,7 +15947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>97</v>
       </c>
@@ -15987,7 +15991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>98</v>
       </c>
@@ -16031,7 +16035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>425</v>
       </c>
@@ -16072,7 +16076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>972</v>
       </c>
@@ -16116,7 +16120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>973</v>
       </c>
@@ -16160,7 +16164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>568</v>
       </c>
@@ -16204,7 +16208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>348</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>640</v>
       </c>
@@ -16289,7 +16293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>639</v>
       </c>
@@ -16333,7 +16337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>153</v>
       </c>
@@ -16377,7 +16381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>154</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>152</v>
       </c>
@@ -16465,7 +16469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>641</v>
       </c>
@@ -16509,7 +16513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>703</v>
       </c>
@@ -16553,7 +16557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>571</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>60</v>
       </c>
@@ -16635,7 +16639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>907</v>
       </c>
@@ -16679,7 +16683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1005</v>
       </c>
@@ -16726,7 +16730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>61</v>
       </c>
@@ -16770,7 +16774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>908</v>
       </c>
@@ -16814,7 +16818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>63</v>
       </c>
@@ -16858,7 +16862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>64</v>
       </c>
@@ -16902,7 +16906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>62</v>
       </c>
@@ -16949,7 +16953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1085</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>65</v>
       </c>
@@ -17043,7 +17047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>67</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>66</v>
       </c>
@@ -17137,7 +17141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>73</v>
       </c>
@@ -17181,7 +17185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>68</v>
       </c>
@@ -17225,7 +17229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>909</v>
       </c>
@@ -17272,7 +17276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>70</v>
       </c>
@@ -17316,7 +17320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>71</v>
       </c>
@@ -17360,7 +17364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1104</v>
       </c>
@@ -17404,7 +17408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1099</v>
       </c>
@@ -17448,7 +17452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>958</v>
       </c>
@@ -17492,7 +17496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>181</v>
       </c>
@@ -17530,7 +17534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>180</v>
       </c>
@@ -17568,7 +17572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>182</v>
       </c>
@@ -17612,7 +17616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>960</v>
       </c>
@@ -17659,7 +17663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>178</v>
       </c>
@@ -17703,7 +17707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>176</v>
       </c>
@@ -17747,7 +17751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>177</v>
       </c>
@@ -17791,7 +17795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>959</v>
       </c>
@@ -17835,7 +17839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>183</v>
       </c>
@@ -17879,7 +17883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1209</v>
       </c>
@@ -17923,7 +17927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1007</v>
       </c>
@@ -17967,7 +17971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>192</v>
       </c>
@@ -18014,7 +18018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>187</v>
       </c>
@@ -18052,7 +18056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1108</v>
       </c>
@@ -18090,7 +18094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>757</v>
       </c>
@@ -18128,7 +18132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>679</v>
       </c>
@@ -18166,7 +18170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>658</v>
       </c>
@@ -18210,7 +18214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>760</v>
       </c>
@@ -18254,7 +18258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>759</v>
       </c>
@@ -18298,7 +18302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>492</v>
       </c>
@@ -18342,7 +18346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1011</v>
       </c>
@@ -18386,7 +18390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1010</v>
       </c>
@@ -18430,7 +18434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1009</v>
       </c>
@@ -18474,7 +18478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1008</v>
       </c>
@@ -18518,7 +18522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>784</v>
       </c>
@@ -18565,7 +18569,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1103</v>
       </c>
@@ -18609,7 +18613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>534</v>
       </c>
@@ -18653,7 +18657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>158</v>
       </c>
@@ -18697,7 +18701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>623</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>982</v>
       </c>
@@ -18788,7 +18792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>224</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>499</v>
       </c>
@@ -18876,7 +18880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>764</v>
       </c>
@@ -18917,7 +18921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>774</v>
       </c>
@@ -18961,7 +18965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>355</v>
       </c>
@@ -19005,7 +19009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>847</v>
       </c>
@@ -19049,7 +19053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>354</v>
       </c>
@@ -19093,7 +19097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>356</v>
       </c>
@@ -19137,7 +19141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>353</v>
       </c>
@@ -19178,7 +19182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1079</v>
       </c>
@@ -19219,7 +19223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1026</v>
       </c>
@@ -19260,7 +19264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1030</v>
       </c>
@@ -19304,7 +19308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>923</v>
       </c>
@@ -19351,7 +19355,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>924</v>
       </c>
@@ -19398,7 +19402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>929</v>
       </c>
@@ -19445,7 +19449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>930</v>
       </c>
@@ -19489,7 +19493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1027</v>
       </c>
@@ -19536,7 +19540,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>1028</v>
       </c>
@@ -19583,7 +19587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>1029</v>
       </c>
@@ -19627,7 +19631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>927</v>
       </c>
@@ -19674,7 +19678,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>928</v>
       </c>
@@ -19721,7 +19725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>947</v>
       </c>
@@ -19768,7 +19772,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>926</v>
       </c>
@@ -19815,7 +19819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>931</v>
       </c>
@@ -19859,7 +19863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>431</v>
       </c>
@@ -19906,7 +19910,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>827</v>
       </c>
@@ -19953,7 +19957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>832</v>
       </c>
@@ -20000,7 +20004,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>433</v>
       </c>
@@ -20047,7 +20051,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>828</v>
       </c>
@@ -20094,7 +20098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>829</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>922</v>
       </c>
@@ -20188,7 +20192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>607</v>
       </c>
@@ -20235,7 +20239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>690</v>
       </c>
@@ -20282,7 +20286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>434</v>
       </c>
@@ -20329,7 +20333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>1078</v>
       </c>
@@ -20373,7 +20377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>985</v>
       </c>
@@ -20417,7 +20421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1012</v>
       </c>
@@ -20461,7 +20465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1013</v>
       </c>
@@ -20505,7 +20509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>145</v>
       </c>
@@ -20549,7 +20553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>144</v>
       </c>
@@ -20593,7 +20597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>143</v>
       </c>
@@ -20637,7 +20641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>535</v>
       </c>
@@ -20681,7 +20685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>610</v>
       </c>
@@ -20725,7 +20729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>609</v>
       </c>
@@ -20769,7 +20773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>840</v>
       </c>
@@ -20813,7 +20817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1</v>
       </c>
@@ -20857,7 +20861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1102</v>
       </c>
@@ -20901,7 +20905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1101</v>
       </c>
@@ -20945,7 +20949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>649</v>
       </c>
@@ -20989,7 +20993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1105</v>
       </c>
@@ -21033,7 +21037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>10</v>
       </c>
@@ -21077,7 +21081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1106</v>
       </c>
@@ -21121,7 +21125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>962</v>
       </c>
@@ -21165,7 +21169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>871</v>
       </c>
@@ -21209,7 +21213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>961</v>
       </c>
@@ -21253,7 +21257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>193</v>
       </c>
@@ -21297,7 +21301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>751</v>
       </c>
@@ -21338,7 +21342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>979</v>
       </c>
@@ -21382,7 +21386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>980</v>
       </c>
@@ -21426,7 +21430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>978</v>
       </c>
@@ -21470,7 +21474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>468</v>
       </c>
@@ -21511,7 +21515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>102</v>
       </c>
@@ -21555,7 +21559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>418</v>
       </c>
@@ -21599,7 +21603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>100</v>
       </c>
@@ -21643,7 +21647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>99</v>
       </c>
@@ -21687,7 +21691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>470</v>
       </c>
@@ -21728,7 +21732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>469</v>
       </c>
@@ -21772,7 +21776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>645</v>
       </c>
@@ -21816,7 +21820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>504</v>
       </c>
@@ -21863,7 +21867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>345</v>
       </c>
@@ -21910,7 +21914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1023</v>
       </c>
@@ -21954,7 +21958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>346</v>
       </c>
@@ -21998,7 +22002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>1022</v>
       </c>
@@ -22045,7 +22049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>3</v>
       </c>
@@ -22089,7 +22093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>845</v>
       </c>
@@ -22133,7 +22137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>846</v>
       </c>
@@ -22177,7 +22181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>253</v>
       </c>
@@ -22215,7 +22219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>733</v>
       </c>
@@ -22259,7 +22263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>1003</v>
       </c>
@@ -22303,7 +22307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>734</v>
       </c>
@@ -22350,7 +22354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>999</v>
       </c>
@@ -22397,7 +22401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>899</v>
       </c>
@@ -22444,7 +22448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1000</v>
       </c>
@@ -22491,7 +22495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>896</v>
       </c>
@@ -22538,7 +22542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>894</v>
       </c>
@@ -22585,7 +22589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>893</v>
       </c>
@@ -22632,7 +22636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>898</v>
       </c>
@@ -22679,7 +22683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1001</v>
       </c>
@@ -22726,7 +22730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>1002</v>
       </c>
@@ -22773,7 +22777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>472</v>
       </c>
@@ -22814,7 +22818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>872</v>
       </c>
@@ -22843,7 +22847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1041</v>
       </c>
@@ -22887,7 +22891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>838</v>
       </c>
@@ -22931,7 +22935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>168</v>
       </c>
@@ -22978,7 +22982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1042</v>
       </c>
@@ -23022,7 +23026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>983</v>
       </c>
@@ -23069,7 +23073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>216</v>
       </c>
@@ -23116,7 +23120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>105</v>
       </c>
@@ -23160,7 +23164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>104</v>
       </c>
@@ -23204,7 +23208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>113</v>
       </c>
@@ -23248,7 +23252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>114</v>
       </c>
@@ -23292,7 +23296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>109</v>
       </c>
@@ -23336,7 +23340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>108</v>
       </c>
@@ -23380,7 +23384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>110</v>
       </c>
@@ -23424,7 +23428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>111</v>
       </c>
@@ -23468,7 +23472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>112</v>
       </c>
@@ -23512,7 +23516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>119</v>
       </c>
@@ -23556,7 +23560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>118</v>
       </c>
@@ -23600,7 +23604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>718</v>
       </c>
@@ -23644,7 +23648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>121</v>
       </c>
@@ -23688,7 +23692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>120</v>
       </c>
@@ -23732,7 +23736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>86</v>
       </c>
@@ -23776,7 +23780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>103</v>
       </c>
@@ -23820,7 +23824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>781</v>
       </c>
@@ -23864,7 +23868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>783</v>
       </c>
@@ -23908,7 +23912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>782</v>
       </c>
@@ -23952,7 +23956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>4</v>
       </c>
@@ -23990,7 +23994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>88</v>
       </c>
@@ -24034,7 +24038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>800</v>
       </c>
@@ -24078,7 +24082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>682</v>
       </c>
@@ -24122,7 +24126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>801</v>
       </c>
@@ -24166,7 +24170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>1031</v>
       </c>
@@ -24207,7 +24211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>932</v>
       </c>
@@ -24251,7 +24255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>741</v>
       </c>
@@ -24295,7 +24299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>742</v>
       </c>
@@ -24339,7 +24343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>825</v>
       </c>
@@ -24383,7 +24387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>375</v>
       </c>
@@ -24424,7 +24428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>376</v>
       </c>
@@ -24465,7 +24469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>753</v>
       </c>
@@ -24503,7 +24507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>886</v>
       </c>
@@ -24541,7 +24545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>885</v>
       </c>
@@ -24585,7 +24589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>974</v>
       </c>
@@ -24629,7 +24633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>678</v>
       </c>
@@ -24673,7 +24677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>884</v>
       </c>
@@ -24717,7 +24721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>883</v>
       </c>
@@ -24758,7 +24762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>505</v>
       </c>
@@ -24799,7 +24803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>506</v>
       </c>
@@ -24843,7 +24847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>156</v>
       </c>
@@ -24887,7 +24891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>644</v>
       </c>
@@ -24931,7 +24935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>643</v>
       </c>
@@ -24975,7 +24979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>491</v>
       </c>
@@ -25019,7 +25023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>844</v>
       </c>
@@ -25063,7 +25067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>575</v>
       </c>
@@ -25107,7 +25111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>420</v>
       </c>
@@ -25151,7 +25155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>670</v>
       </c>
@@ -25195,7 +25199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>671</v>
       </c>
@@ -25239,7 +25243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>669</v>
       </c>
@@ -25283,7 +25287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>984</v>
       </c>
@@ -25330,7 +25334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>222</v>
       </c>
@@ -25377,7 +25381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>873</v>
       </c>
@@ -25421,7 +25425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>875</v>
       </c>
@@ -25465,7 +25469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>874</v>
       </c>
@@ -25509,7 +25513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>17</v>
       </c>
@@ -25553,7 +25557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>850</v>
       </c>
@@ -25597,7 +25601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>661</v>
       </c>
@@ -25641,7 +25645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>475</v>
       </c>
@@ -25685,7 +25689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>954</v>
       </c>
@@ -25732,7 +25736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>1062</v>
       </c>
@@ -25776,7 +25780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>823</v>
       </c>
@@ -25823,7 +25827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>200</v>
       </c>
@@ -25867,7 +25871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1061</v>
       </c>
@@ -25914,7 +25918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1060</v>
       </c>
@@ -25961,7 +25965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>331</v>
       </c>
@@ -26005,7 +26009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>332</v>
       </c>
@@ -26049,7 +26053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>342</v>
       </c>
@@ -26096,7 +26100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>341</v>
       </c>
@@ -26143,7 +26147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>588</v>
       </c>
@@ -26187,7 +26191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>583</v>
       </c>
@@ -26234,7 +26238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>589</v>
       </c>
@@ -26281,7 +26285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>582</v>
       </c>
@@ -26328,7 +26332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>334</v>
       </c>
@@ -26375,7 +26379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>577</v>
       </c>
@@ -26419,7 +26423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>333</v>
       </c>
@@ -26466,7 +26470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>586</v>
       </c>
@@ -26513,7 +26517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>587</v>
       </c>
@@ -26560,7 +26564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>335</v>
       </c>
@@ -26607,7 +26611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>336</v>
       </c>
@@ -26654,7 +26658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>584</v>
       </c>
@@ -26701,7 +26705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>585</v>
       </c>
@@ -26748,7 +26752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>339</v>
       </c>
@@ -26795,7 +26799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>578</v>
       </c>
@@ -26842,7 +26846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>581</v>
       </c>
@@ -26889,7 +26893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>580</v>
       </c>
@@ -26936,7 +26940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>579</v>
       </c>
@@ -26983,7 +26987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>820</v>
       </c>
@@ -27030,7 +27034,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>340</v>
       </c>
@@ -27077,7 +27081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>970</v>
       </c>
@@ -27121,7 +27125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>971</v>
       </c>
@@ -27165,7 +27169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>567</v>
       </c>
@@ -27209,7 +27213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>370</v>
       </c>
@@ -27250,7 +27254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>877</v>
       </c>
@@ -27294,7 +27298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>398</v>
       </c>
@@ -27338,7 +27342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>878</v>
       </c>
@@ -27382,7 +27386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>169</v>
       </c>
@@ -27426,7 +27430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>777</v>
       </c>
@@ -27470,7 +27474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>992</v>
       </c>
@@ -27514,7 +27518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>990</v>
       </c>
@@ -27558,7 +27562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>989</v>
       </c>
@@ -27602,7 +27606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>991</v>
       </c>
@@ -27646,7 +27650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>988</v>
       </c>
@@ -27690,7 +27694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>778</v>
       </c>
@@ -27734,7 +27738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>997</v>
       </c>
@@ -27778,7 +27782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>995</v>
       </c>
@@ -27822,7 +27826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>994</v>
       </c>
@@ -27866,7 +27870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>993</v>
       </c>
@@ -27910,7 +27914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>779</v>
       </c>
@@ -27954,7 +27958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>996</v>
       </c>
@@ -27998,7 +28002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>18</v>
       </c>
@@ -28042,7 +28046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>914</v>
       </c>
@@ -28086,7 +28090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>662</v>
       </c>
@@ -28799,7 +28803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>19</v>
       </c>
@@ -28843,7 +28847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>851</v>
       </c>
@@ -28887,7 +28891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>663</v>
       </c>
@@ -28931,7 +28935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>594</v>
       </c>
@@ -28975,7 +28979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>852</v>
       </c>
@@ -29019,7 +29023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>7</v>
       </c>
@@ -29063,7 +29067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>858</v>
       </c>
@@ -29107,7 +29111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>254</v>
       </c>
@@ -29145,7 +29149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>510</v>
       </c>
@@ -29189,7 +29193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>509</v>
       </c>
@@ -29233,7 +29237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>900</v>
       </c>
@@ -29277,7 +29281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>1107</v>
       </c>
@@ -29321,7 +29325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>612</v>
       </c>
@@ -29365,7 +29369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>611</v>
       </c>
@@ -29409,7 +29413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>915</v>
       </c>
@@ -29453,7 +29457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>20</v>
       </c>
@@ -29497,7 +29501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>21</v>
       </c>
@@ -29541,7 +29545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>596</v>
       </c>
@@ -29585,7 +29589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>664</v>
       </c>
@@ -29629,7 +29633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>595</v>
       </c>
@@ -29673,7 +29677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>916</v>
       </c>
@@ -29717,7 +29721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>771</v>
       </c>
@@ -29761,7 +29765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>966</v>
       </c>
@@ -29805,7 +29809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>770</v>
       </c>
@@ -29849,7 +29853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>202</v>
       </c>
@@ -29893,7 +29897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>1069</v>
       </c>
@@ -29940,7 +29944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>1066</v>
       </c>
@@ -29984,7 +29988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>1070</v>
       </c>
@@ -30031,7 +30035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>1067</v>
       </c>
@@ -30075,7 +30079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>1071</v>
       </c>
@@ -30122,7 +30126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>1068</v>
       </c>
@@ -30166,7 +30170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>2</v>
       </c>
@@ -30204,7 +30208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>22</v>
       </c>
@@ -30242,7 +30246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>917</v>
       </c>
@@ -30280,7 +30284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>427</v>
       </c>
@@ -30321,7 +30325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>225</v>
       </c>
@@ -30365,7 +30369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>307</v>
       </c>
@@ -30409,7 +30413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>297</v>
       </c>
@@ -30453,7 +30457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>572</v>
       </c>
@@ -30500,7 +30504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>298</v>
       </c>
@@ -30544,7 +30548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>294</v>
       </c>
@@ -30588,7 +30592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>299</v>
       </c>
@@ -30632,7 +30636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>301</v>
       </c>
@@ -30676,7 +30680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>302</v>
       </c>
@@ -30720,7 +30724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>303</v>
       </c>
@@ -30764,7 +30768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>836</v>
       </c>
@@ -30811,7 +30815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>306</v>
       </c>
@@ -30855,7 +30859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="630" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>304</v>
       </c>
@@ -30899,7 +30903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>305</v>
       </c>
@@ -30943,7 +30947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="632" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>948</v>
       </c>
@@ -30987,7 +30991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>853</v>
       </c>
@@ -31031,7 +31035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>24</v>
       </c>
@@ -31075,7 +31079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>1100</v>
       </c>
@@ -31119,7 +31123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="636" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>854</v>
       </c>
@@ -31163,7 +31167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>25</v>
       </c>
@@ -31207,7 +31211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>918</v>
       </c>
@@ -31251,7 +31255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>599</v>
       </c>
@@ -31295,7 +31299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>666</v>
       </c>
@@ -31339,7 +31343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>665</v>
       </c>
@@ -31383,7 +31387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>667</v>
       </c>
@@ -31427,7 +31431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>855</v>
       </c>
@@ -31471,7 +31475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>597</v>
       </c>
@@ -31515,7 +31519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>361</v>
       </c>
@@ -31559,7 +31563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>359</v>
       </c>
@@ -31600,7 +31604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>357</v>
       </c>
@@ -31641,7 +31645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>360</v>
       </c>
@@ -31682,7 +31686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>775</v>
       </c>
@@ -31726,7 +31730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>363</v>
       </c>
@@ -31770,7 +31774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>848</v>
       </c>
@@ -31814,7 +31818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>362</v>
       </c>
@@ -31858,7 +31862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>967</v>
       </c>
@@ -31899,7 +31903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>373</v>
       </c>
@@ -31943,7 +31947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>951</v>
       </c>
@@ -31981,7 +31985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>5</v>
       </c>
@@ -32019,7 +32023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>950</v>
       </c>
@@ -32057,7 +32061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>381</v>
       </c>
@@ -32101,7 +32105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>327</v>
       </c>
@@ -32145,7 +32149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>328</v>
       </c>
@@ -32189,7 +32193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>329</v>
       </c>
@@ -32233,7 +32237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>619</v>
       </c>
@@ -32277,7 +32281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>620</v>
       </c>
@@ -32321,7 +32325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="664" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>617</v>
       </c>
@@ -32365,7 +32369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="665" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>388</v>
       </c>
@@ -32409,7 +32413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>8</v>
       </c>
@@ -32447,7 +32451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>919</v>
       </c>
@@ -32485,7 +32489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>668</v>
       </c>
@@ -32529,7 +32533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>819</v>
       </c>
@@ -32573,7 +32577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>856</v>
       </c>
@@ -32617,7 +32621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>680</v>
       </c>
@@ -32661,7 +32665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>1086</v>
       </c>
@@ -32705,7 +32709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>1091</v>
       </c>
@@ -32749,7 +32753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="674" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>1093</v>
       </c>
@@ -32793,7 +32797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>1092</v>
       </c>
@@ -32837,7 +32841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="676" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>1089</v>
       </c>
@@ -32881,7 +32885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>755</v>
       </c>
@@ -32925,7 +32929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>902</v>
       </c>
@@ -32969,7 +32973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>901</v>
       </c>
@@ -33013,7 +33017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="680" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>903</v>
       </c>
@@ -33057,7 +33061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>675</v>
       </c>
@@ -33101,7 +33105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>165</v>
       </c>
@@ -33145,7 +33149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>164</v>
       </c>
@@ -33189,7 +33193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>161</v>
       </c>
@@ -33233,7 +33237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>162</v>
       </c>
@@ -33277,7 +33281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>163</v>
       </c>
@@ -33321,7 +33325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>689</v>
       </c>
@@ -33365,7 +33369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>12</v>
       </c>
@@ -33403,7 +33407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>969</v>
       </c>
@@ -33447,7 +33451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>90</v>
       </c>
@@ -33494,7 +33498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>91</v>
       </c>
@@ -33538,7 +33542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>94</v>
       </c>
@@ -33582,7 +33586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>93</v>
       </c>
@@ -33620,7 +33624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>92</v>
       </c>
@@ -33658,7 +33662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>540</v>
       </c>
@@ -33696,7 +33700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>614</v>
       </c>
@@ -33734,7 +33738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="697" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>147</v>
       </c>
@@ -33778,7 +33782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>676</v>
       </c>
@@ -33822,7 +33826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>570</v>
       </c>
@@ -33869,7 +33873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>600</v>
       </c>
@@ -33916,7 +33920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>987</v>
       </c>
@@ -33963,7 +33967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>876</v>
       </c>
@@ -34007,7 +34011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>157</v>
       </c>
@@ -34051,7 +34055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>538</v>
       </c>
@@ -34095,7 +34099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>391</v>
       </c>
@@ -34139,7 +34143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>281</v>
       </c>
@@ -34183,7 +34187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>279</v>
       </c>
@@ -34227,7 +34231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>484</v>
       </c>
@@ -34271,7 +34275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="709" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>284</v>
       </c>
@@ -34315,7 +34319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>289</v>
       </c>
@@ -34359,7 +34363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>288</v>
       </c>
@@ -34403,7 +34407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="712" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>485</v>
       </c>
@@ -34447,7 +34451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="713" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>286</v>
       </c>
@@ -34491,7 +34495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>953</v>
       </c>
@@ -34538,7 +34542,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="715" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>862</v>
       </c>
@@ -34585,7 +34589,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="716" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>276</v>
       </c>
@@ -34629,7 +34633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="717" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>278</v>
       </c>
@@ -34673,7 +34677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>277</v>
       </c>
@@ -34717,7 +34721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>273</v>
       </c>
@@ -34761,7 +34765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>837</v>
       </c>
@@ -34808,7 +34812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>1145</v>
       </c>
@@ -34855,7 +34859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>1144</v>
       </c>
@@ -34902,7 +34906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>290</v>
       </c>
@@ -34946,7 +34950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>291</v>
       </c>
@@ -34990,7 +34994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>293</v>
       </c>
@@ -35035,6 +35039,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X725" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Skipjack tuna"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AV725">
     <sortCondition ref="B2:B725"/>
     <sortCondition ref="D2:D725"/>
@@ -35064,6 +35075,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c1d44291-39af-47b8-9c57-02cfd16aa72d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2bb546f-448a-4208-a6a3-70eb45ef93a6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B70A6CF0D8440849932B13F83D66255D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0502cebbcfb7305afb5edde52b12d463">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2bb546f-448a-4208-a6a3-70eb45ef93a6" xmlns:ns3="c1d44291-39af-47b8-9c57-02cfd16aa72d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b95ec7ab4b9b37d471e6339dae19459" ns2:_="" ns3:_="">
     <xsd:import namespace="c2bb546f-448a-4208-a6a3-70eb45ef93a6"/>
@@ -35312,17 +35334,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c1d44291-39af-47b8-9c57-02cfd16aa72d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c2bb546f-448a-4208-a6a3-70eb45ef93a6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62171DE-C0B9-4D81-BC24-2BEE9D849F7D}">
   <ds:schemaRefs>
@@ -35332,6 +35343,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB72556-B9C5-4605-888D-227719232FD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c2bb546f-448a-4208-a6a3-70eb45ef93a6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1d44291-39af-47b8-9c57-02cfd16aa72d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D986C9D9-AE4B-48AE-95E4-53FF44ABD933}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35348,21 +35376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB72556-B9C5-4605-888D-227719232FD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c2bb546f-448a-4208-a6a3-70eb45ef93a6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1d44291-39af-47b8-9c57-02cfd16aa72d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>